--- a/presentations/EDA_OutbrainDataSetSummary.xlsx
+++ b/presentations/EDA_OutbrainDataSetSummary.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="FeatureSelection" sheetId="2" r:id="rId2"/>
+    <sheet name="FactTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
   <si>
     <t>Dataset</t>
   </si>
@@ -309,6 +310,90 @@
       <t>document_id, campaign_id, advertiser_id</t>
     </r>
   </si>
+  <si>
+    <t>reduce cardinality to state and country</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Zeros</t>
+  </si>
+  <si>
+    <t>+Inf</t>
+  </si>
+  <si>
+    <t>-Inf</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>cardinality</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>·</t>
+  </si>
+  <si>
+    <t>Convert to enum</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>Convert to numeric</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dc_category_id_1</t>
+  </si>
+  <si>
+    <t>de_entity_id_1</t>
+  </si>
+  <si>
+    <t>dt_topic_id_1</t>
+  </si>
+  <si>
+    <t>ad_document_id</t>
+  </si>
+  <si>
+    <t>ad_campaign_id</t>
+  </si>
+  <si>
+    <t>ad_advertiser_id</t>
+  </si>
+  <si>
+    <t>Response Variable</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,8 +452,16 @@
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -552,8 +651,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,8 +695,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -621,6 +724,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,7 +1003,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1051,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <f>D6/F6</f>
+        <f t="shared" ref="E6:E11" si="1">D6/F6</f>
         <v>0</v>
       </c>
       <c r="F6" s="11">
@@ -1079,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <f>D7/F7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="11">
@@ -1107,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <f>D8/F8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="11">
@@ -1135,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <f>D9/F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="11">
@@ -1163,7 +1267,7 @@
         <v>340</v>
       </c>
       <c r="E10" s="10">
-        <f>D10/F10</f>
+        <f t="shared" si="1"/>
         <v>1.4705802208863394E-5</v>
       </c>
       <c r="F10" s="11">
@@ -1176,6 +1280,9 @@
         <v>49</v>
       </c>
       <c r="I10" s="29"/>
+      <c r="J10" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
@@ -1191,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="10">
-        <f>D11/F11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="11">
@@ -1346,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E33" si="1">D18/F18</f>
+        <f t="shared" ref="E18:E33" si="2">D18/F18</f>
         <v>0</v>
       </c>
       <c r="F18" s="11">
@@ -1376,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" s="11">
@@ -1403,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="11">
@@ -1438,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="11">
@@ -1471,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="11">
@@ -1498,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="11">
@@ -1533,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="11">
@@ -1566,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="11">
@@ -1593,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="11">
@@ -1628,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="11">
@@ -1658,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F31" s="11">
@@ -1685,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="11">
@@ -1712,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33" s="26">
@@ -1734,7 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -1759,7 +1866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -1783,4 +1890,793 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>16874541</v>
+      </c>
+      <c r="J2">
+        <v>8437815.1169000007</v>
+      </c>
+      <c r="K2">
+        <v>4866193.3463000003</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>547581</v>
+      </c>
+      <c r="J3">
+        <v>190411.17199999999</v>
+      </c>
+      <c r="K3">
+        <v>125073.67049999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>806333</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.3952</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>2824960</v>
+      </c>
+      <c r="J6">
+        <v>1683201.5445999999</v>
+      </c>
+      <c r="K6">
+        <v>738178.31740000006</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1033</v>
+      </c>
+      <c r="I7">
+        <v>1123196292</v>
+      </c>
+      <c r="J7">
+        <v>562151474.4332</v>
+      </c>
+      <c r="K7">
+        <v>324236024.64579999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>431829</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1586</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>1587</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>454</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2608</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>2609</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>457</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <v>458</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>140496</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-17606044800000</v>
+      </c>
+      <c r="I12">
+        <v>1502002800000</v>
+      </c>
+      <c r="J12">
+        <v>1450294094676.9099</v>
+      </c>
+      <c r="K12">
+        <v>293388180467.68201</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>45143</v>
+      </c>
+      <c r="E13">
+        <v>1101</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>88</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>429487</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>22533</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>22534</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>97834</v>
+      </c>
+      <c r="E15">
+        <v>1156</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>299</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <v>300</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2388</v>
+      </c>
+      <c r="I16">
+        <v>2821504</v>
+      </c>
+      <c r="J16">
+        <v>1230469.4575</v>
+      </c>
+      <c r="K16">
+        <v>443365.59509999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20799</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>20800</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3407</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>3408</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="M7" r:id="rId11"/>
+    <hyperlink ref="B8" r:id="rId12"/>
+    <hyperlink ref="M8" r:id="rId13"/>
+    <hyperlink ref="B9" r:id="rId14"/>
+    <hyperlink ref="M9" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId16"/>
+    <hyperlink ref="M10" r:id="rId17"/>
+    <hyperlink ref="B11" r:id="rId18"/>
+    <hyperlink ref="M11" r:id="rId19"/>
+    <hyperlink ref="B12" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="M13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="M14" r:id="rId24"/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="M15" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="B17" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="B18" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="M6" r:id="rId32"/>
+    <hyperlink ref="M16" r:id="rId33"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>